--- a/lypt2/Training-Plan-DevOps.xlsx
+++ b/lypt2/Training-Plan-DevOps.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>TARGET DATE(S)</t>
   </si>
@@ -134,6 +134,16 @@
     <t>How to use Git Hub
 1. Command common
 2.  Manage branches ( merge, rebase)</t>
+  </si>
+  <si>
+    <t>Learn command following:
+1. System information
+2. Device
+3. User &amp; Groups
+4. File &amp; Folder
+5. Compose 
+6. Filter
+7. Installation</t>
   </si>
 </sst>
 </file>
@@ -298,7 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -358,6 +368,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -664,8 +677,8 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -753,10 +766,14 @@
         <v>43683</v>
       </c>
       <c r="D5" s="19">
-        <v>6</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+        <v>3</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.3">
